--- a/コードまとめ.xlsx
+++ b/コードまとめ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\サイバー大学\02_教材\2023\Cプログラミング演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8CCB10-5730-4FE8-88F9-81126A8A3BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A63E58-98FE-4A35-B375-803A8E46F567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第5回" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,10 @@
     <sheet name="第11回" sheetId="6" r:id="rId6"/>
     <sheet name="第11回-2" sheetId="7" r:id="rId7"/>
     <sheet name="第12回" sheetId="8" r:id="rId8"/>
+    <sheet name="第13回_レポート" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7444,8 +7446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCD2235-D82C-4AAE-8B50-2CA1B66C2BF9}">
   <dimension ref="B3:D227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184:D227"/>
+    <sheetView topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="I179" sqref="I179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8348,4 +8350,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E96237-75F6-44F8-A987-34594569DFC8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/コードまとめ.xlsx
+++ b/コードまとめ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\サイバー大学\02_教材\2023\Cプログラミング演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A63E58-98FE-4A35-B375-803A8E46F567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7297518E-FCED-4452-99C3-CDA9493D7BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,6 @@
     <sheet name="第13回_レポート" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="546">
   <si>
     <t>#include &lt;stdio.h&gt;</t>
   </si>
@@ -1352,12 +1351,413 @@
   <si>
     <t xml:space="preserve">    print_deco(strcat(word,name));  </t>
   </si>
+  <si>
+    <t>2行目に double std;  を追加し、5行目と13行目を削除する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">double std; </t>
+  </si>
+  <si>
+    <t>void calc_std(double h)</t>
+  </si>
+  <si>
+    <t>//  double std;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std=h*h*22/10000;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  double h;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  printf("身長(cm)を入力："); scanf("%lf",&amp;h);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  calc_std(h);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  printf("標準体重は %.1f kg です\n",std);</t>
+  </si>
+  <si>
+    <t>3行目を double calc_std(double h)  に変更する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7行目を return std; に変更する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double calc_std(double h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  double std;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return std;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std=calc_std(h);</t>
+  </si>
+  <si>
+    <t>5行目の std を *std に、6行目の bmi を *bmi にする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17行目の *std を &amp;std に、 *bmi を &amp;bmi にする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void calc_std_bmi(double h, double w, double* std, double* bmi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  *std=h*h*22/10000;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  *bmi=w*10000/(h*h);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  double h,w;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  double std,bmi;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  printf("体重(kg)を入力："); scanf("%lf",&amp;w);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  calc_std_bmi(h,w,&amp;std,&amp;bmi);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  printf("BMIは %.1f、標準体重は %.1f kg です\n",bmi,std);</t>
+  </si>
+  <si>
+    <t>7行目を }; に変更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9行目を struct results calc_std_bmi(double h,double w) に変更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>struct results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  double bmi;</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>struct results calc_std_bmi(double h,double w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  struct results x;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  x.std=h*h*22/10000;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  x.bmi=w*10000/(h*h);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return x;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  calc_std_bmi(h,w);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  printf("BMIは %.1f、標準体重は %.1f kg です\n",x.bmi,x.std);</t>
+  </si>
+  <si>
+    <t>24行目を x=calc_std_bmi(h,w); に変更</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  x=calc_std_bmi(h,w);</t>
+  </si>
+  <si>
+    <t>3行目を typedef struct results に変更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7行目を } RES; に変更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>typedef struct results</t>
+  </si>
+  <si>
+    <t>} RES;</t>
+  </si>
+  <si>
+    <t>imax = i;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#define N 10</t>
+  </si>
+  <si>
+    <t>int maxdata(int Data[],int n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  int i,imax=0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  for(i=1;i&lt;n;i++){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if(Data[imax]&lt;Data[i]) imax = i;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return imax;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  int i,imax;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  int Data[N];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  for(i=0;i&lt;N;i++){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Data[i]=rand()%100; // 0から99 までの整数をランダムに生成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    printf("%d ",Data[i]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  imax=maxdata(Data,N);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  printf("\n最大値は %d番目のデータ %d です\n",imax+1, Data[imax]);</t>
+  </si>
+  <si>
+    <t>int maxdata(int* Data, int n)</t>
+  </si>
+  <si>
+    <t>int maxdata(int* Data, int n)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*(Data+imax) &lt; *(Data+i)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    if(*(Data+imax) &lt; *(Data+i)) imax = i;</t>
+  </si>
+  <si>
+    <t>swap(Data+imax, Data+(n-1));</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void swap(int* px, int* py)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  int tmp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  tmp=*px; *px=*py; *py=tmp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  int n,i,imax;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Data[i]=rand()%100; // 0～99までの整数をランダムに生成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  for(n=N;n&gt;1;n--){ // 範囲を狭める繰り返し（nは範囲内のデータ数）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    imax=maxdata(Data,n); //Data[0]～Data[n-1] の中の最大値を求める</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    swap(Data+imax, Data+(n-1)); //最大値を右端のData[n-1]と交換</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  printf("\n並べ替え後\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  for(i=0;i&lt;N;i++) printf("%d ",Data[i]);</t>
+  </si>
+  <si>
+    <t>imax = i + maxdata(&amp;Data[i] ,N-i);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imax = i + maxdata(Data+i,N-i);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> for(i=0;i&lt;N-1;i++){ // 範囲を狭める繰り返し（ i は範囲左端の要素番号）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    imax = i + maxdata(Data+i,N-i); //Data[i]からN-i個中の最大値の要素番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    swap(&amp;Data[i], &amp;Data[imax]); //最大値を範囲左端のData[i]と交換</t>
+  </si>
+  <si>
+    <t>strcpy( str2, str1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  int i;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  char str1[256],str2[256];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  printf("入力文字列：");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  scanf("%s",str1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  strcpy( str2, str1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  for(i=0;i&lt;256;i++){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if( (65&lt;=str1[i]) &amp;&amp; (str1[i]&lt;=90) ) str2[i]=str1[i]+32;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  printf("変換文字列：%s",str2);</t>
+  </si>
+  <si>
+    <t>12行目を削除し、13行目と14行目の間に str2[i]=str1[i]; を追加する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12行目を削除し、14行目と15行目の間に else str2[i]=str1[i]; を追加する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>//  str2=str1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else str2[i]=str1[i];</t>
+  </si>
+  <si>
+    <t>if( ('A'&lt;=str1[i]) &amp;&amp; (str1[i]&lt;='Z') )  str2[i] = str1[i] + 'a'-'A';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if( (0x41&lt;=str1[i]) &amp;&amp; (str1[i]&lt;=0x5A) )  str2[i] = str1[i] + 0x61-0x41;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fgets(str1,256,stdin);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  fgets(str1,256,stdin);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if( (0x41&lt;=str1[i]) &amp;&amp; (str1[i]&lt;=0x5A) )  str2[i] = str1[i] + 0x61-0x41;</t>
+  </si>
+  <si>
+    <t>printf("%s %s\n", Data[i].name.family, Data[i].name.first);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B C A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>printf("%d組 ", (&amp;Data[i])-&gt;group );</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>printf("%d組 ", (Data+i)-&gt;group );</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>struct fullname{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  char family[32];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  char first[32];</t>
+  </si>
+  <si>
+    <t>struct record{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  int english;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  int math;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">}; </t>
+  </si>
+  <si>
+    <t>struct student{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  int group;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  struct fullname name;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  struct record score[3];</t>
+  </si>
+  <si>
+    <t>int main()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  struct student Data[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 = { {1, {"小山","一郎"}, {{80,90},{81,91},{82,92}} }, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     {2, {"中田","花子"}, {{90,80},{91,81},{92,82}} },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     {3, {"大川","二郎"}, {{80,80},{81,81},{82,82}} } };</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  for(i=0; i&lt;3;i++){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    printf("%d組 ", (Data+i)-&gt;group );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    printf("%s %s\n", Data[i].name.family, Data[i].name.first);</t>
+  </si>
+  <si>
+    <t>sum += Data[1].score[i].english;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sum += Data[i].score[1].english;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  float sum=0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  for(i=0;i&lt;3;i++){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   sum += Data[i].score[1].english;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  printf("平均点 %.1f点\n", sum/3.0);</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1397,6 +1797,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1418,7 +1833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1428,6 +1843,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3900,9 +4317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC1D790-2A64-4B66-B345-A7CEF0B712A3}">
   <dimension ref="C3:D326"/>
   <sheetViews>
-    <sheetView topLeftCell="B272" workbookViewId="0">
-      <selection activeCell="D281" sqref="D281"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -8354,12 +8769,2382 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E96237-75F6-44F8-A987-34594569DFC8}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:D532"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="B505" sqref="B505"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="C6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="C7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="C9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="C10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="C11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="C16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="C17" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="C19" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="C21" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="C28" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="C32" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="C54" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="C58" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="C61" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="C62" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="C64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="C67" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="C68" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="C69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="C70" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="C71" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="C72" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="C73" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="C74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="C75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="C80" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="C98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="C101" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="C102" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="C103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="C104" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="C105" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="C106" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="C107" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="C108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="C109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="C129" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="C132" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="C133" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="C134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="C135" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="C136" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="C137" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="C138" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="C139" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="C140" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="C145" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="C148" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="C150" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="C151" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="C152" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3">
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="C154" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="C155" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="C156" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="C157" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="C158" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3">
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="C160" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3">
+      <c r="C161" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3">
+      <c r="C162" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3">
+      <c r="C163" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3">
+      <c r="C165" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3">
+      <c r="C167" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3">
+      <c r="C173" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3">
+      <c r="C175" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3">
+      <c r="C176" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3">
+      <c r="C177" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3">
+      <c r="B180">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3">
+      <c r="C181" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3">
+      <c r="C183" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3">
+      <c r="C184" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3">
+      <c r="C185" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3">
+      <c r="C186" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3">
+      <c r="C187" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3">
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3">
+      <c r="C189" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3">
+      <c r="C190" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3">
+      <c r="C191" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3">
+      <c r="C192" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3">
+      <c r="C194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3">
+      <c r="C197" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3">
+      <c r="C198" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3">
+      <c r="C200" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3">
+      <c r="C201" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3">
+      <c r="C203" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3">
+      <c r="C204" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3">
+      <c r="C205" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3">
+      <c r="C206" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3">
+      <c r="C207" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3">
+      <c r="C208" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="C209" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="C210" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="C214" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="C216" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="C217" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="C218" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="C219" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="C220" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3">
+      <c r="C221" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3">
+      <c r="C222" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3">
+      <c r="C223" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3">
+      <c r="C224" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3">
+      <c r="C228" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3">
+      <c r="C231" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3">
+      <c r="C232" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3">
+      <c r="C233" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3">
+      <c r="C234" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3">
+      <c r="C236" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3">
+      <c r="C237" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3">
+      <c r="C238" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3">
+      <c r="C239" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="C241" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="C242" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3">
+      <c r="C243" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="B245">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="C246" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="C248" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="C249" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="C250" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="C251" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="C252" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="C253" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="C254" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="C255" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="C256" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3">
+      <c r="C257" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3">
+      <c r="C258" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3">
+      <c r="C259" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3">
+      <c r="C260" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3">
+      <c r="C261" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3">
+      <c r="C262" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3">
+      <c r="C263" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3">
+      <c r="C264" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3">
+      <c r="C265" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3">
+      <c r="C266" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3">
+      <c r="C267" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3">
+      <c r="C268" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3">
+      <c r="C269" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3">
+      <c r="C270" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3">
+      <c r="C271" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3">
+      <c r="C272" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3">
+      <c r="C273" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3">
+      <c r="C274" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3">
+      <c r="C275" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3">
+      <c r="B277">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3">
+      <c r="C278" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3">
+      <c r="C280" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3">
+      <c r="C281" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3">
+      <c r="C282" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3">
+      <c r="C284" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3">
+      <c r="C285" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3">
+      <c r="C286" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3">
+      <c r="C287" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3">
+      <c r="C288" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3">
+      <c r="C289" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3">
+      <c r="C291" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3">
+      <c r="C292" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3">
+      <c r="C293" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3">
+      <c r="C294" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3">
+      <c r="C295" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3">
+      <c r="C296" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3">
+      <c r="C297" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3">
+      <c r="C298" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3">
+      <c r="C299" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3">
+      <c r="C300" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3">
+      <c r="C301" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3">
+      <c r="C302" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3">
+      <c r="C303" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3">
+      <c r="C304" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3">
+      <c r="C305" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3">
+      <c r="C306" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3">
+      <c r="C307" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3">
+      <c r="C308" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3">
+      <c r="C309" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3">
+      <c r="C310" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3">
+      <c r="C311" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3">
+      <c r="C312" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3">
+      <c r="C313" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="314" spans="3:3">
+      <c r="C314" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3">
+      <c r="C315" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="316" spans="3:3">
+      <c r="C316" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3">
+      <c r="C317" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3">
+      <c r="C318" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3">
+      <c r="C319" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3">
+      <c r="B322">
+        <v>12</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3">
+      <c r="C323" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3">
+      <c r="C325" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3">
+      <c r="C326" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3">
+      <c r="C327" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3">
+      <c r="C329" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3">
+      <c r="C330" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="C331" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3">
+      <c r="C332" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3">
+      <c r="C333" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3">
+      <c r="C334" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3">
+      <c r="C336" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3">
+      <c r="C337" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3">
+      <c r="C338" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3">
+      <c r="C339" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3">
+      <c r="C340" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3">
+      <c r="C341" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="342" spans="3:3">
+      <c r="C342" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3">
+      <c r="C343" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3">
+      <c r="C344" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3">
+      <c r="C345" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="3:3">
+      <c r="C346" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3">
+      <c r="C347" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="348" spans="3:3">
+      <c r="C348" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="349" spans="3:3">
+      <c r="C349" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3">
+      <c r="C350" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="351" spans="3:3">
+      <c r="C351" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="352" spans="3:3">
+      <c r="C352" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3">
+      <c r="C353" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3">
+      <c r="C354" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3">
+      <c r="C355" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3">
+      <c r="C356" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3">
+      <c r="C357" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3">
+      <c r="C358" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3">
+      <c r="C359" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3">
+      <c r="C360" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3">
+      <c r="C361" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3">
+      <c r="C362" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3">
+      <c r="C363" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3">
+      <c r="C364" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3">
+      <c r="B367">
+        <v>13</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3">
+      <c r="C369" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="3:3">
+      <c r="C370" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3">
+      <c r="C371" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="372" spans="3:3">
+      <c r="C372" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="3:3">
+      <c r="C373" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="3:3">
+      <c r="C374" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="375" spans="3:3">
+      <c r="C375" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="376" spans="3:3">
+      <c r="C376" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3">
+      <c r="C377" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="378" spans="3:3">
+      <c r="C378" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="379" spans="3:3">
+      <c r="C379" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="380" spans="3:3">
+      <c r="C380" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="381" spans="3:3">
+      <c r="C381" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="382" spans="3:3">
+      <c r="C382" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="383" spans="3:3">
+      <c r="C383" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="384" spans="3:3">
+      <c r="C384" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3">
+      <c r="C385" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3">
+      <c r="C386" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3">
+      <c r="C387" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3">
+      <c r="C388" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3">
+      <c r="B391">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3">
+      <c r="C392" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3">
+      <c r="C393" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3">
+      <c r="C395" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3">
+      <c r="C396" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="397" spans="2:3">
+      <c r="C397" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3">
+      <c r="C398" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3">
+      <c r="C399" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3">
+      <c r="C400" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3">
+      <c r="C401" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3">
+      <c r="C402" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3">
+      <c r="C403" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3">
+      <c r="C404" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3">
+      <c r="C405" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3">
+      <c r="C406" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3">
+      <c r="C407" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3">
+      <c r="C408" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3">
+      <c r="C409" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3">
+      <c r="C410" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3">
+      <c r="C411" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3">
+      <c r="C412" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3">
+      <c r="C413" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3">
+      <c r="C414" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3">
+      <c r="C415" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3">
+      <c r="B417">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="418" spans="2:3">
+      <c r="C418" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3">
+      <c r="C419" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3">
+      <c r="B421">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3">
+      <c r="C422" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="424" spans="2:3">
+      <c r="C424" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="2:3">
+      <c r="C425" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="426" spans="2:3">
+      <c r="C426" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="427" spans="2:3">
+      <c r="C427" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="2:3">
+      <c r="C428" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="2:3">
+      <c r="C429" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="430" spans="2:3">
+      <c r="C430" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="431" spans="2:3">
+      <c r="C431" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="432" spans="2:3">
+      <c r="C432" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3">
+      <c r="C433" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3">
+      <c r="C434" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3">
+      <c r="C435" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3">
+      <c r="C436" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3">
+      <c r="C437" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3">
+      <c r="C438" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3">
+      <c r="C439" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3">
+      <c r="C440" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3">
+      <c r="C441" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3">
+      <c r="C442" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="443" spans="2:3">
+      <c r="C443" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3">
+      <c r="C444" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="447" spans="2:3">
+      <c r="B447">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3">
+      <c r="C448" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3">
+      <c r="B450">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3">
+      <c r="C451" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3">
+      <c r="B453">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3">
+      <c r="C454" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3">
+      <c r="C455" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3">
+      <c r="C457" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3">
+      <c r="C459" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3">
+      <c r="C460" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3">
+      <c r="C461" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3">
+      <c r="C462" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3">
+      <c r="C464" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="465" spans="3:3">
+      <c r="C465" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="466" spans="3:3">
+      <c r="C466" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="467" spans="3:3">
+      <c r="C467" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="469" spans="3:3">
+      <c r="C469" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="470" spans="3:3">
+      <c r="C470" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="471" spans="3:3">
+      <c r="C471" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="472" spans="3:3">
+      <c r="C472" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="473" spans="3:3">
+      <c r="C473" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="475" spans="3:3">
+      <c r="C475" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="476" spans="3:3">
+      <c r="C476" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="3:3">
+      <c r="C477" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="478" spans="3:3">
+      <c r="C478" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3">
+      <c r="C479" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="480" spans="3:3">
+      <c r="C480" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3">
+      <c r="C481" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3">
+      <c r="C482" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3">
+      <c r="C483" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3">
+      <c r="C484" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3">
+      <c r="C485" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3">
+      <c r="C486" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3">
+      <c r="C487" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3">
+      <c r="C488" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3">
+      <c r="C489" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3">
+      <c r="B493">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3">
+      <c r="C494" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3">
+      <c r="B496">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3">
+      <c r="C497" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="499" spans="3:3">
+      <c r="C499" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="3:3">
+      <c r="C501" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="502" spans="3:3">
+      <c r="C502" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="503" spans="3:3">
+      <c r="C503" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="504" spans="3:3">
+      <c r="C504" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3">
+      <c r="C506" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="507" spans="3:3">
+      <c r="C507" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="508" spans="3:3">
+      <c r="C508" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="509" spans="3:3">
+      <c r="C509" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="511" spans="3:3">
+      <c r="C511" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3">
+      <c r="C512" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="513" spans="3:3">
+      <c r="C513" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="514" spans="3:3">
+      <c r="C514" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3">
+      <c r="C515" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="517" spans="3:3">
+      <c r="C517" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="518" spans="3:3">
+      <c r="C518" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="3:3">
+      <c r="C519" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="520" spans="3:3">
+      <c r="C520" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="521" spans="3:3">
+      <c r="C521" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="522" spans="3:3">
+      <c r="C522" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="523" spans="3:3">
+      <c r="C523" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="524" spans="3:3">
+      <c r="C524" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="525" spans="3:3">
+      <c r="C525" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="526" spans="3:3">
+      <c r="C526" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="527" spans="3:3">
+      <c r="C527" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="528" spans="3:3">
+      <c r="C528" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="529" spans="3:3">
+      <c r="C529" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3">
+      <c r="C530" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="531" spans="3:3">
+      <c r="C531" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3">
+      <c r="C532" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
